--- a/Code/Results/Cases/Case_2_253/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_253/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.421788364481358</v>
+        <v>2.048564009522522</v>
       </c>
       <c r="C2">
-        <v>1.023768020745251</v>
+        <v>0.3391783373210728</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.01188165292276766</v>
+        <v>0.03282930602375345</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.0008041825587351434</v>
+        <v>0.002541578262752807</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.888001500301456</v>
+        <v>2.271183132967721</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3930218056610784</v>
+        <v>0.2975070824688686</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.957779938332976</v>
+        <v>1.947589550913108</v>
       </c>
       <c r="C3">
-        <v>0.8768447237582677</v>
+        <v>0.301067710024455</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.01176702524198481</v>
+        <v>0.03288561977588311</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.0008157432484923234</v>
+        <v>0.002548195112812574</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.611366118277729</v>
+        <v>2.20423224319596</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3444646492927745</v>
+        <v>0.2871410443532199</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.680044439384062</v>
+        <v>1.887176263788206</v>
       </c>
       <c r="C4">
-        <v>0.7888801571985198</v>
+        <v>0.2778217906077884</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01170613709280754</v>
+        <v>0.03292420771249194</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.0008229787752501238</v>
+        <v>0.002552464330100363</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.447797171351169</v>
+        <v>2.163953270228461</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3155062053550779</v>
+        <v>0.2809706534582119</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.568414376979433</v>
+        <v>1.862953556297043</v>
       </c>
       <c r="C5">
-        <v>0.7535097286904602</v>
+        <v>0.268386198267109</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.01168346637940598</v>
+        <v>0.03294094160173988</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008259653856559235</v>
+        <v>0.002554256185162608</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.382518279732778</v>
+        <v>2.147743181767297</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.303892816415626</v>
+        <v>0.2785047007317587</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.549965009311109</v>
+        <v>1.858955252930627</v>
       </c>
       <c r="C6">
-        <v>0.7476628175477344</v>
+        <v>0.2668216365477178</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01167982477155682</v>
+        <v>0.03294378120529029</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008264637068782654</v>
+        <v>0.002554556874953036</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.371756361787902</v>
+        <v>2.145063691776073</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3019749849248967</v>
+        <v>0.2780981522342358</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.67853299757644</v>
+        <v>1.88684798689269</v>
       </c>
       <c r="C7">
-        <v>0.7884013231330584</v>
+        <v>0.2776943897587216</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.01170582297452372</v>
+        <v>0.03292442930562289</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938368969</v>
       </c>
       <c r="G7">
-        <v>0.0008230188951496734</v>
+        <v>0.002552488284521221</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.446911476959258</v>
+        <v>2.163733835672915</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.315348858874188</v>
+        <v>0.2809372007120459</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.260148962986477</v>
+        <v>2.013417407121153</v>
       </c>
       <c r="C8">
-        <v>0.972585519310087</v>
+        <v>0.3260049036360897</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.01183999909710398</v>
+        <v>0.03284789069824723</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.0008081424792363471</v>
+        <v>0.002543817026647478</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.791183066007036</v>
+        <v>2.247923598704659</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3760839406450316</v>
+        <v>0.2938923076201689</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.47076921502935</v>
+        <v>2.274330584480992</v>
       </c>
       <c r="C9">
-        <v>1.356253813111493</v>
+        <v>0.4220358820753631</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.01219185104939746</v>
+        <v>0.03272961675064545</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>0.5661985755042025</v>
       </c>
       <c r="G9">
-        <v>0.0007798738271637111</v>
+        <v>0.002528441524829806</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.526713488987497</v>
+        <v>2.419813178654266</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5034183948656477</v>
+        <v>0.3208574981389916</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.424738033546305</v>
+        <v>2.473982527900375</v>
       </c>
       <c r="C10">
-        <v>1.659542450260801</v>
+        <v>0.4934849064833884</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.01252782573797973</v>
+        <v>0.03266212041972949</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007593531242067186</v>
+        <v>0.002518125117484393</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.121167613102045</v>
+        <v>2.550551836813327</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6043571280422384</v>
+        <v>0.3416474848295934</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.87882889087706</v>
+        <v>2.566586249264446</v>
       </c>
       <c r="C11">
-        <v>1.804324196823018</v>
+        <v>0.5262070145349753</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.01270451517760662</v>
+        <v>0.03263563058677632</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007499877667228188</v>
+        <v>0.002513641918704845</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.408104182570952</v>
+        <v>2.61106278211696</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.65253662393485</v>
+        <v>0.3513241366049726</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.054308730028254</v>
+        <v>2.601912609044859</v>
       </c>
       <c r="C12">
-        <v>1.860354486003757</v>
+        <v>0.5386314294879071</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0127756295174597</v>
+        <v>0.03262620607654965</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007464283183844523</v>
+        <v>0.002511974199931446</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.519626712565866</v>
+        <v>2.634131186256326</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6711739384589066</v>
+        <v>0.3550204225523714</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.01634776557097</v>
+        <v>2.594292858514905</v>
       </c>
       <c r="C13">
-        <v>1.848229705573829</v>
+        <v>0.5359541028497006</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.01276011221175888</v>
+        <v>0.03262820882383921</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007471956429604379</v>
+        <v>0.002512332042981846</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.495472014683003</v>
+        <v>2.629156052414601</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6671413706783227</v>
+        <v>0.35422293338641</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.893190991430458</v>
+        <v>2.569487353675356</v>
       </c>
       <c r="C14">
-        <v>1.808908247778504</v>
+        <v>0.5272285022142</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.01271027635330224</v>
+        <v>0.03263484306554787</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007496952445678818</v>
+        <v>0.002513504115007956</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.417218614058783</v>
+        <v>2.612957513577072</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6540616206598315</v>
+        <v>0.3516275894893113</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.818233947881311</v>
+        <v>2.554327137263954</v>
       </c>
       <c r="C15">
-        <v>1.784987047182199</v>
+        <v>0.5218882023024207</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0126803245561351</v>
+        <v>0.03263898574827961</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007512243458844205</v>
+        <v>0.002514225940344121</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.369675577435316</v>
+        <v>2.603055676275432</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6461032779535287</v>
+        <v>0.3500420399209361</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.395518285447224</v>
+        <v>2.467966769430745</v>
       </c>
       <c r="C16">
-        <v>1.65023593871598</v>
+        <v>0.4913510018316174</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.01251682068180227</v>
+        <v>0.03266393644583321</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0007599638616355176</v>
+        <v>0.002518422309884991</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.102787829988188</v>
+        <v>2.546618608545572</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6012594817778592</v>
+        <v>0.3410195398781184</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.141762157645587</v>
+        <v>2.41544591015753</v>
       </c>
       <c r="C17">
-        <v>1.569462042541716</v>
+        <v>0.4726748495634752</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.01242312014384828</v>
+        <v>0.03268032270426957</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>0.0007653118602191492</v>
+        <v>0.002521050238617537</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.943611854571515</v>
+        <v>2.512265553369929</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5743727275769288</v>
+        <v>0.3355409685672726</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.997658395723079</v>
+        <v>2.385404741833554</v>
       </c>
       <c r="C18">
-        <v>1.523628635914577</v>
+        <v>0.4619533865849803</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.01237141508217365</v>
+        <v>0.03269014430142003</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007683856302120873</v>
+        <v>0.002522581511461637</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.853578374555411</v>
+        <v>2.492603912059565</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.559116368192548</v>
+        <v>0.3324104433880279</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.949167809977155</v>
+        <v>2.375261980093967</v>
       </c>
       <c r="C19">
-        <v>1.508211542629795</v>
+        <v>0.4583267648181391</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.01235426396013928</v>
+        <v>0.03269353783663242</v>
       </c>
       <c r="F19">
-        <v>2.087706772602971</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>0.000769426204651591</v>
+        <v>0.002523103373702958</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.823342230804087</v>
+        <v>2.485963380739861</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.553984730858545</v>
+        <v>0.3313540272181399</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.168579275397633</v>
+        <v>2.421019492798393</v>
       </c>
       <c r="C20">
-        <v>1.577994328247144</v>
+        <v>0.4746608172599167</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.01243286315250325</v>
+        <v>0.03267853730323189</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.6429339538360921</v>
       </c>
       <c r="G20">
-        <v>0.0007647428475188547</v>
+        <v>0.002520768447671103</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.960395800924658</v>
+        <v>2.515912385202284</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5772128731910016</v>
+        <v>0.3361220363079696</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.929263768883061</v>
+        <v>2.576766267014534</v>
       </c>
       <c r="C21">
-        <v>1.820423198883418</v>
+        <v>0.5297905062855079</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.01272479303658125</v>
+        <v>0.03263287795939851</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>0.0007489614808909107</v>
+        <v>0.002513159037305976</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.440121361036489</v>
+        <v>2.617711190931004</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6578921957283939</v>
+        <v>0.3523890343666665</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.447356911438078</v>
+        <v>2.680069002963421</v>
       </c>
       <c r="C22">
-        <v>1.986026069191837</v>
+        <v>0.5660156328983703</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0129406167211692</v>
+        <v>0.03260657311338777</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007385663883513441</v>
+        <v>0.00250836045131551</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.770657219836181</v>
+        <v>2.685143908287699</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7129519106951108</v>
+        <v>0.3632068823265939</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.168680730738629</v>
+        <v>2.624794832215969</v>
       </c>
       <c r="C23">
-        <v>1.896898386589896</v>
+        <v>0.546663221131837</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.01282282599527029</v>
+        <v>0.03262028872277667</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>0.7472568307916134</v>
       </c>
       <c r="G23">
-        <v>0.0007441251838253837</v>
+        <v>0.002510905635558547</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.592499001118398</v>
+        <v>2.649069641273371</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6833262357318119</v>
+        <v>0.3574159905568592</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.156449745609677</v>
+        <v>2.418499197359097</v>
       </c>
       <c r="C24">
-        <v>1.57413501508438</v>
+        <v>0.4737629124721821</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.01242845165177897</v>
+        <v>0.03267934323436017</v>
       </c>
       <c r="F24">
-        <v>2.170038921573038</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0007650001002021956</v>
+        <v>0.002520895781511231</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.952803208076801</v>
+        <v>2.514263377605232</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5759282216055084</v>
+        <v>0.3358592758781924</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.133724884401659</v>
+        <v>2.202364544647025</v>
       </c>
       <c r="C25">
-        <v>1.249335696908361</v>
+        <v>0.3959075493743285</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.01208504884650452</v>
+        <v>0.03275820686337871</v>
       </c>
       <c r="F25">
-        <v>1.757113814925404</v>
+        <v>0.5279251897347308</v>
       </c>
       <c r="G25">
-        <v>0.0007874528824320153</v>
+        <v>0.002532427973887575</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.31964794907465</v>
+        <v>2.372553312771942</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4678677037004064</v>
+        <v>0.3133928584521612</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_253/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_253/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.048564009522522</v>
+        <v>3.421788364481301</v>
       </c>
       <c r="C2">
-        <v>0.3391783373210728</v>
+        <v>1.023768020744967</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03282930602375345</v>
+        <v>0.01188165292278764</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002541578262752807</v>
+        <v>0.0008041825586452066</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.271183132967721</v>
+        <v>2.888001500301513</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2975070824688686</v>
+        <v>0.3930218056609931</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.947589550913108</v>
+        <v>2.95777993833309</v>
       </c>
       <c r="C3">
-        <v>0.301067710024455</v>
+        <v>0.8768447237587793</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03288561977588311</v>
+        <v>0.01176702524197215</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002548195112812574</v>
+        <v>0.0008157432485455973</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.20423224319596</v>
+        <v>2.611366118277743</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2871410443532199</v>
+        <v>0.3444646492928882</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.887176263788206</v>
+        <v>2.680044439384119</v>
       </c>
       <c r="C4">
-        <v>0.2778217906077884</v>
+        <v>0.7888801571989461</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03292420771249194</v>
+        <v>0.01170613709278701</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002552464330100363</v>
+        <v>0.0008229787752261205</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.163953270228461</v>
+        <v>2.447797171351183</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2809706534582119</v>
+        <v>0.3155062053550068</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.862953556297043</v>
+        <v>2.568414376979263</v>
       </c>
       <c r="C5">
-        <v>0.268386198267109</v>
+        <v>0.7535097286904886</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03294094160173988</v>
+        <v>0.01168346637940443</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002554256185162608</v>
+        <v>0.0008259653855828151</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.147743181767297</v>
+        <v>2.382518279732793</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2785047007317587</v>
+        <v>0.3038928164156971</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.858955252930627</v>
+        <v>2.549965009310938</v>
       </c>
       <c r="C6">
-        <v>0.2668216365477178</v>
+        <v>0.747662817547905</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03294378120529029</v>
+        <v>0.01167982477157881</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002554556874953036</v>
+        <v>0.0008264637070036083</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.145063691776073</v>
+        <v>2.371756361787916</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2780981522342358</v>
+        <v>0.3019749849250815</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.88684798689269</v>
+        <v>2.678532997576383</v>
       </c>
       <c r="C7">
-        <v>0.2776943897587216</v>
+        <v>0.7884013231330016</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03292442930562289</v>
+        <v>0.01170582297452294</v>
       </c>
       <c r="F7">
-        <v>0.3529483938368969</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002552488284521221</v>
+        <v>0.0008230188952075892</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.163733835672915</v>
+        <v>2.446911476959258</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2809372007120459</v>
+        <v>0.3153488588742448</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.013417407121153</v>
+        <v>3.260148962986477</v>
       </c>
       <c r="C8">
-        <v>0.3260049036360897</v>
+        <v>0.9725855193101154</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03284789069824723</v>
+        <v>0.01183999909709355</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002543817026647478</v>
+        <v>0.0008081424792094818</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.247923598704659</v>
+        <v>2.791183066007051</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2938923076201689</v>
+        <v>0.3760839406449321</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.274330584480992</v>
+        <v>4.470769215029406</v>
       </c>
       <c r="C9">
-        <v>0.4220358820753631</v>
+        <v>1.356253813111607</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03272961675064545</v>
+        <v>0.01219185104941745</v>
       </c>
       <c r="F9">
-        <v>0.5661985755042025</v>
+        <v>1.895061171845327</v>
       </c>
       <c r="G9">
-        <v>0.002528441524829806</v>
+        <v>0.0007798738272082328</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.419813178654266</v>
+        <v>3.526713488987554</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3208574981389916</v>
+        <v>0.5034183948656761</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.473982527900375</v>
+        <v>5.424738033546419</v>
       </c>
       <c r="C10">
-        <v>0.4934849064833884</v>
+        <v>1.659542450260005</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03266212041972949</v>
+        <v>0.01252782573799749</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0.002518125117484393</v>
+        <v>0.0007593531243681741</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.550551836813327</v>
+        <v>4.121167613102017</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3416474848295934</v>
+        <v>0.6043571280425084</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.566586249264446</v>
+        <v>5.878828890876775</v>
       </c>
       <c r="C11">
-        <v>0.5262070145349753</v>
+        <v>1.804324196822506</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03263563058677632</v>
+        <v>0.01270451517755067</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639217</v>
       </c>
       <c r="G11">
-        <v>0.002513641918704845</v>
+        <v>0.0007499877667239048</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.61106278211696</v>
+        <v>4.408104182570952</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3513241366049726</v>
+        <v>0.6525366239349495</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.601912609044859</v>
+        <v>6.054308730028254</v>
       </c>
       <c r="C12">
-        <v>0.5386314294879071</v>
+        <v>1.860354486002905</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03262620607654965</v>
+        <v>0.01277562951743971</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.002511974199931446</v>
+        <v>0.0007464283183754961</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.634131186256326</v>
+        <v>4.519626712565923</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3550204225523714</v>
+        <v>0.6711739384590345</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.594292858514905</v>
+        <v>6.01634776557114</v>
       </c>
       <c r="C13">
-        <v>0.5359541028497006</v>
+        <v>1.848229705573885</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03262820882383921</v>
+        <v>0.01276011221180973</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.002512332042981846</v>
+        <v>0.0007471956429605539</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.629156052414601</v>
+        <v>4.49547201468306</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.35422293338641</v>
+        <v>0.6671413706781806</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.569487353675356</v>
+        <v>5.893190991430174</v>
       </c>
       <c r="C14">
-        <v>0.5272285022142</v>
+        <v>1.808908247778731</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03263484306554787</v>
+        <v>0.01271027635342126</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002513504115007956</v>
+        <v>0.0007496952447734184</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.612957513577072</v>
+        <v>4.417218614058839</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3516275894893113</v>
+        <v>0.6540616206601158</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.554327137263954</v>
+        <v>5.81823394788114</v>
       </c>
       <c r="C15">
-        <v>0.5218882023024207</v>
+        <v>1.784987047182028</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03263898574827961</v>
+        <v>0.01268032455606294</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.002514225940344121</v>
+        <v>0.0007512243459880059</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.603055676275432</v>
+        <v>4.369675577435231</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3500420399209361</v>
+        <v>0.6461032779535572</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.467966769430745</v>
+        <v>5.395518285447281</v>
       </c>
       <c r="C16">
-        <v>0.4913510018316174</v>
+        <v>1.650235938715753</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03266393644583321</v>
+        <v>0.01251682068184223</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002518422309884991</v>
+        <v>0.0007599638615721659</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.546618608545572</v>
+        <v>4.102787829988245</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3410195398781184</v>
+        <v>0.601259481777987</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.41544591015753</v>
+        <v>5.141762157645644</v>
       </c>
       <c r="C17">
-        <v>0.4726748495634752</v>
+        <v>1.569462042541033</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03268032270426957</v>
+        <v>0.01242312014386604</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.002521050238617537</v>
+        <v>0.0007653118602279468</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.512265553369929</v>
+        <v>3.943611854571486</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3355409685672726</v>
+        <v>0.5743727275767583</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.385404741833554</v>
+        <v>4.997658395723192</v>
       </c>
       <c r="C18">
-        <v>0.4619533865849803</v>
+        <v>1.523628635914065</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03269014430142003</v>
+        <v>0.01237141508217388</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0.002522581511461637</v>
+        <v>0.0007683856302556697</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.492603912059565</v>
+        <v>3.853578374555497</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3324104433880279</v>
+        <v>0.559116368192619</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.375261980093967</v>
+        <v>4.949167809976927</v>
       </c>
       <c r="C19">
-        <v>0.4583267648181391</v>
+        <v>1.508211542630193</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03269353783663242</v>
+        <v>0.01235426396010331</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.002523103373702958</v>
+        <v>0.0007694262046476214</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.485963380739861</v>
+        <v>3.823342230804116</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3313540272181399</v>
+        <v>0.5539847308586161</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.421019492798393</v>
+        <v>5.168579275397576</v>
       </c>
       <c r="C20">
-        <v>0.4746608172599167</v>
+        <v>1.577994328247485</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03267853730323189</v>
+        <v>0.01243286315252901</v>
       </c>
       <c r="F20">
-        <v>0.6429339538360921</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002520768447671103</v>
+        <v>0.0007647428476053245</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.515912385202284</v>
+        <v>3.960395800924658</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3361220363079696</v>
+        <v>0.5772128731909163</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.576766267014534</v>
+        <v>5.929263768883004</v>
       </c>
       <c r="C21">
-        <v>0.5297905062855079</v>
+        <v>1.820423198883816</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.03263287795939851</v>
+        <v>0.01272479303655194</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002513159037305976</v>
+        <v>0.0007489614808004779</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.617711190931004</v>
+        <v>4.440121361036461</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3523890343666665</v>
+        <v>0.6578921957282233</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.680069002963421</v>
+        <v>6.447356911437851</v>
       </c>
       <c r="C22">
-        <v>0.5660156328983703</v>
+        <v>1.986026069191496</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03260657311338777</v>
+        <v>0.01294061672116764</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.00250836045131551</v>
+        <v>0.0007385663882288895</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.685143908287699</v>
+        <v>4.770657219836266</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3632068823265939</v>
+        <v>0.7129519106951676</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.624794832215969</v>
+        <v>6.168680730738572</v>
       </c>
       <c r="C23">
-        <v>0.546663221131837</v>
+        <v>1.896898386589385</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03262028872277667</v>
+        <v>0.01282282599527651</v>
       </c>
       <c r="F23">
-        <v>0.7472568307916134</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.002510905635558547</v>
+        <v>0.0007441251841512032</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.649069641273371</v>
+        <v>4.59249900111837</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3574159905568592</v>
+        <v>0.6833262357317693</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.418499197359097</v>
+        <v>5.156449745609734</v>
       </c>
       <c r="C24">
-        <v>0.4737629124721821</v>
+        <v>1.574135015084494</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03267934323436017</v>
+        <v>0.01242845165182316</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921573024</v>
       </c>
       <c r="G24">
-        <v>0.002520895781511231</v>
+        <v>0.0007650001002004538</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.514263377605232</v>
+        <v>3.952803208076773</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3358592758781924</v>
+        <v>0.5759282216054942</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.202364544647025</v>
+        <v>4.133724884401488</v>
       </c>
       <c r="C25">
-        <v>0.3959075493743285</v>
+        <v>1.249335696908702</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03275820686337871</v>
+        <v>0.01208504884645123</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347308</v>
+        <v>1.757113814925418</v>
       </c>
       <c r="G25">
-        <v>0.002532427973887575</v>
+        <v>0.0007874528823403421</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.372553312771942</v>
+        <v>3.319647949074692</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3133928584521612</v>
+        <v>0.4678677037004491</v>
       </c>
       <c r="M25">
         <v>0</v>
